--- a/output/SPX_12831360000114.xlsx
+++ b/output/SPX_12831360000114.xlsx
@@ -1714,10 +1714,10 @@
         <v>44165</v>
       </c>
       <c r="B121">
-        <v>2.2328037</v>
+        <v>2.2320973</v>
       </c>
       <c r="C121">
-        <v>0.002234657066124468</v>
+        <v>0.002015658751518545</v>
       </c>
     </row>
   </sheetData>

--- a/output/SPX_12831360000114.xlsx
+++ b/output/SPX_12831360000114.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SPX NIMITZ FEEDER FUNDO DE INVESTIMENTO EM QUOTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1338 +383,978 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40543</v>
       </c>
       <c r="B2">
-        <v>0.01019729999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40574</v>
       </c>
       <c r="B3">
-        <v>0.02809510000000004</v>
-      </c>
-      <c r="C3">
         <v>0.01771713307885503</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40602</v>
       </c>
       <c r="B4">
-        <v>0.04104440000000009</v>
-      </c>
-      <c r="C4">
         <v>0.01259543013092856</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40633</v>
       </c>
       <c r="B5">
-        <v>0.03885720000000004</v>
-      </c>
-      <c r="C5">
         <v>-0.002100967067302895</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40663</v>
       </c>
       <c r="B6">
-        <v>0.05390899999999998</v>
-      </c>
-      <c r="C6">
         <v>0.01448880558367405</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40694</v>
       </c>
       <c r="B7">
-        <v>0.05364619999999998</v>
-      </c>
-      <c r="C7">
         <v>-0.0002493573923365577</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40724</v>
       </c>
       <c r="B8">
-        <v>0.05317379999999994</v>
-      </c>
-      <c r="C8">
         <v>-0.0004483478419986531</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40755</v>
       </c>
       <c r="B9">
-        <v>0.06090989999999996</v>
-      </c>
-      <c r="C9">
         <v>0.0073455112536982</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40786</v>
       </c>
       <c r="B10">
-        <v>0.08291859999999995</v>
-      </c>
-      <c r="C10">
         <v>0.02074511699815407</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40816</v>
       </c>
       <c r="B11">
-        <v>0.1052937</v>
-      </c>
-      <c r="C11">
         <v>0.02066184845287555</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40847</v>
       </c>
       <c r="B12">
-        <v>0.1078109</v>
-      </c>
-      <c r="C12">
         <v>0.00227740373441021</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40877</v>
       </c>
       <c r="B13">
-        <v>0.1249184000000001</v>
-      </c>
-      <c r="C13">
         <v>0.01544261750809639</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40908</v>
       </c>
       <c r="B14">
-        <v>0.1228861999999999</v>
-      </c>
-      <c r="C14">
         <v>-0.001806531033717751</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40939</v>
       </c>
       <c r="B15">
-        <v>0.1477184</v>
-      </c>
-      <c r="C15">
         <v>0.02211461856063424</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40968</v>
       </c>
       <c r="B16">
-        <v>0.1671309999999999</v>
-      </c>
-      <c r="C16">
         <v>0.01691407927240673</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40999</v>
       </c>
       <c r="B17">
-        <v>0.1823714000000001</v>
-      </c>
-      <c r="C17">
         <v>0.01305800291483994</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41029</v>
       </c>
       <c r="B18">
-        <v>0.1868205999999999</v>
-      </c>
-      <c r="C18">
         <v>0.003762946228232256</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41060</v>
       </c>
       <c r="B19">
-        <v>0.2261983000000001</v>
-      </c>
-      <c r="C19">
         <v>0.03317915108652492</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41090</v>
       </c>
       <c r="B20">
-        <v>0.2224292999999999</v>
-      </c>
-      <c r="C20">
         <v>-0.00307372796064076</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41121</v>
       </c>
       <c r="B21">
-        <v>0.2237180999999999</v>
-      </c>
-      <c r="C21">
         <v>0.001054294101098474</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41152</v>
       </c>
       <c r="B22">
-        <v>0.2311371</v>
-      </c>
-      <c r="C22">
         <v>0.006062670806291193</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41182</v>
       </c>
       <c r="B23">
-        <v>0.2262926000000001</v>
-      </c>
-      <c r="C23">
         <v>-0.003934980109038921</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41213</v>
       </c>
       <c r="B24">
-        <v>0.2521926999999999</v>
-      </c>
-      <c r="C24">
         <v>0.02112065260770546</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41243</v>
       </c>
       <c r="B25">
-        <v>0.2360741</v>
-      </c>
-      <c r="C25">
         <v>-0.01287229992636119</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41274</v>
       </c>
       <c r="B26">
-        <v>0.2522405999999999</v>
-      </c>
-      <c r="C26">
         <v>0.01307890845702531</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41305</v>
       </c>
       <c r="B27">
-        <v>0.2757239</v>
-      </c>
-      <c r="C27">
         <v>0.01875302557671432</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41333</v>
       </c>
       <c r="B28">
-        <v>0.2857122999999999</v>
-      </c>
-      <c r="C28">
         <v>0.007829593848637462</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41364</v>
       </c>
       <c r="B29">
-        <v>0.3081408999999999</v>
-      </c>
-      <c r="C29">
         <v>0.01744449360871791</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41394</v>
       </c>
       <c r="B30">
-        <v>0.2891254000000001</v>
-      </c>
-      <c r="C30">
         <v>-0.01453627816391934</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41425</v>
       </c>
       <c r="B31">
-        <v>0.3429633999999999</v>
-      </c>
-      <c r="C31">
         <v>0.04176319852203658</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41455</v>
       </c>
       <c r="B32">
-        <v>0.3929909</v>
-      </c>
-      <c r="C32">
         <v>0.0372515736467578</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41486</v>
       </c>
       <c r="B33">
-        <v>0.3876819</v>
-      </c>
-      <c r="C33">
         <v>-0.003811223748841464</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41517</v>
       </c>
       <c r="B34">
-        <v>0.4372590999999999</v>
-      </c>
-      <c r="C34">
         <v>0.03572663158610045</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41547</v>
       </c>
       <c r="B35">
-        <v>0.4072674999999999</v>
-      </c>
-      <c r="C35">
         <v>-0.02086721872208008</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41578</v>
       </c>
       <c r="B36">
-        <v>0.3858452000000001</v>
-      </c>
-      <c r="C36">
         <v>-0.01522262114345696</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41608</v>
       </c>
       <c r="B37">
-        <v>0.4284688000000001</v>
-      </c>
-      <c r="C37">
         <v>0.03075639328259738</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41639</v>
       </c>
       <c r="B38">
-        <v>0.4563961000000001</v>
-      </c>
-      <c r="C38">
         <v>0.01955051450896228</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41670</v>
       </c>
       <c r="B39">
-        <v>0.4735575999999999</v>
-      </c>
-      <c r="C39">
         <v>0.01178353883260175</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41698</v>
       </c>
       <c r="B40">
-        <v>0.4736651000000001</v>
-      </c>
-      <c r="C40">
         <v>7.295269625040568e-05</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41729</v>
       </c>
       <c r="B41">
-        <v>0.4757439000000001</v>
-      </c>
-      <c r="C41">
         <v>0.001410632578596083</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41759</v>
       </c>
       <c r="B42">
-        <v>0.4715533000000001</v>
-      </c>
-      <c r="C42">
         <v>-0.002839652598259135</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41790</v>
       </c>
       <c r="B43">
-        <v>0.4655617000000001</v>
-      </c>
-      <c r="C43">
         <v>-0.004071616026412372</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41820</v>
       </c>
       <c r="B44">
-        <v>0.4761938999999999</v>
-      </c>
-      <c r="C44">
         <v>0.007254692859399725</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41851</v>
       </c>
       <c r="B45">
-        <v>0.4879036999999999</v>
-      </c>
-      <c r="C45">
         <v>0.007932426763177958</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41882</v>
       </c>
       <c r="B46">
-        <v>0.4817731000000001</v>
-      </c>
-      <c r="C46">
         <v>-0.004120293537814179</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41912</v>
       </c>
       <c r="B47">
-        <v>0.5163868</v>
-      </c>
-      <c r="C47">
         <v>0.02335964932822709</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41943</v>
       </c>
       <c r="B48">
-        <v>0.5078608</v>
-      </c>
-      <c r="C48">
         <v>-0.005622575981273359</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41973</v>
       </c>
       <c r="B49">
-        <v>0.5392707999999999</v>
-      </c>
-      <c r="C49">
         <v>0.02083083531318008</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42004</v>
       </c>
       <c r="B50">
-        <v>0.5254684999999999</v>
-      </c>
-      <c r="C50">
         <v>-0.008966778295281141</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42035</v>
       </c>
       <c r="B51">
-        <v>0.5648461</v>
-      </c>
-      <c r="C51">
         <v>0.02581344681978037</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42063</v>
       </c>
       <c r="B52">
-        <v>0.5979323999999999</v>
-      </c>
-      <c r="C52">
         <v>0.02114348497273943</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42094</v>
       </c>
       <c r="B53">
-        <v>0.6803713</v>
-      </c>
-      <c r="C53">
         <v>0.05159098094512649</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42124</v>
       </c>
       <c r="B54">
-        <v>0.6537561999999999</v>
-      </c>
-      <c r="C54">
         <v>-0.01583882086060395</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42155</v>
       </c>
       <c r="B55">
-        <v>0.7003614</v>
-      </c>
-      <c r="C55">
         <v>0.0281814211792526</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42185</v>
       </c>
       <c r="B56">
-        <v>0.7159260000000001</v>
-      </c>
-      <c r="C56">
         <v>0.009153701089662514</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42216</v>
       </c>
       <c r="B57">
-        <v>0.805817</v>
-      </c>
-      <c r="C57">
         <v>0.05238629171654252</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42247</v>
       </c>
       <c r="B58">
-        <v>0.8382844</v>
-      </c>
-      <c r="C58">
         <v>0.01797934120677791</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42277</v>
       </c>
       <c r="B59">
-        <v>0.8675406999999999</v>
-      </c>
-      <c r="C59">
         <v>0.015915002053001</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42308</v>
       </c>
       <c r="B60">
-        <v>0.8776474000000001</v>
-      </c>
-      <c r="C60">
         <v>0.005411769606948891</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42338</v>
       </c>
       <c r="B61">
-        <v>0.9143839</v>
-      </c>
-      <c r="C61">
         <v>0.0195651750163528</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42369</v>
       </c>
       <c r="B62">
-        <v>0.9420584000000001</v>
-      </c>
-      <c r="C62">
         <v>0.01445608689040889</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42400</v>
       </c>
       <c r="B63">
-        <v>1.004402</v>
-      </c>
-      <c r="C63">
         <v>0.0321018152698187</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42429</v>
       </c>
       <c r="B64">
-        <v>1.0187435</v>
-      </c>
-      <c r="C64">
         <v>0.007155001840948083</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42460</v>
       </c>
       <c r="B65">
-        <v>0.9558237000000001</v>
-      </c>
-      <c r="C65">
         <v>-0.03116780314091405</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42490</v>
       </c>
       <c r="B66">
-        <v>1.0243804</v>
-      </c>
-      <c r="C66">
         <v>0.03505259702088681</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42521</v>
       </c>
       <c r="B67">
-        <v>1.0600448</v>
-      </c>
-      <c r="C67">
         <v>0.01761743988432207</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42551</v>
       </c>
       <c r="B68">
-        <v>1.0588904</v>
-      </c>
-      <c r="C68">
         <v>-0.0005603761626931103</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42582</v>
       </c>
       <c r="B69">
-        <v>1.0662038</v>
-      </c>
-      <c r="C69">
         <v>0.003552107484691591</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42613</v>
       </c>
       <c r="B70">
-        <v>1.1176974</v>
-      </c>
-      <c r="C70">
         <v>0.02492183975269047</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42643</v>
       </c>
       <c r="B71">
-        <v>1.164555</v>
-      </c>
-      <c r="C71">
         <v>0.02212667399978874</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42674</v>
       </c>
       <c r="B72">
-        <v>1.2242289</v>
-      </c>
-      <c r="C72">
         <v>0.02756866884879328</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42704</v>
       </c>
       <c r="B73">
-        <v>1.2682049</v>
-      </c>
-      <c r="C73">
         <v>0.01977134637536637</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42735</v>
       </c>
       <c r="B74">
-        <v>1.3130793</v>
-      </c>
-      <c r="C74">
         <v>0.01978410327920543</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42766</v>
       </c>
       <c r="B75">
-        <v>1.3751549</v>
-      </c>
-      <c r="C75">
         <v>0.02683677987174926</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42794</v>
       </c>
       <c r="B76">
-        <v>1.3981186</v>
-      </c>
-      <c r="C76">
         <v>0.009668295739364119</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42825</v>
       </c>
       <c r="B77">
-        <v>1.4437232</v>
-      </c>
-      <c r="C77">
         <v>0.01901682427216067</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42855</v>
       </c>
       <c r="B78">
-        <v>1.4406093</v>
-      </c>
-      <c r="C78">
         <v>-0.001274244153347537</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42886</v>
       </c>
       <c r="B79">
-        <v>1.4650412</v>
-      </c>
-      <c r="C79">
         <v>0.01001057399887806</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42916</v>
       </c>
       <c r="B80">
-        <v>1.4974423</v>
-      </c>
-      <c r="C80">
         <v>0.01314424278182447</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42947</v>
       </c>
       <c r="B81">
-        <v>1.5681468</v>
-      </c>
-      <c r="C81">
         <v>0.02831076417661382</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42978</v>
       </c>
       <c r="B82">
-        <v>1.5791227</v>
-      </c>
-      <c r="C82">
         <v>0.004273860045695299</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43008</v>
       </c>
       <c r="B83">
-        <v>1.6397191</v>
-      </c>
-      <c r="C83">
         <v>0.02349496594326439</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43039</v>
       </c>
       <c r="B84">
-        <v>1.6311459</v>
-      </c>
-      <c r="C84">
         <v>-0.003247769810053036</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43069</v>
       </c>
       <c r="B85">
-        <v>1.658567</v>
-      </c>
-      <c r="C85">
         <v>0.01042173297953575</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43100</v>
       </c>
       <c r="B86">
-        <v>1.6936505</v>
-      </c>
-      <c r="C86">
         <v>0.01319639489995916</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43131</v>
       </c>
       <c r="B87">
-        <v>1.8049036</v>
-      </c>
-      <c r="C87">
         <v>0.04130198034229005</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43159</v>
       </c>
       <c r="B88">
-        <v>1.8103465</v>
-      </c>
-      <c r="C88">
         <v>0.001940494496851963</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43190</v>
       </c>
       <c r="B89">
-        <v>1.821033</v>
-      </c>
-      <c r="C89">
         <v>0.003802556019337766</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43220</v>
       </c>
       <c r="B90">
-        <v>1.8522134</v>
-      </c>
-      <c r="C90">
         <v>0.01105283064749685</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43251</v>
       </c>
       <c r="B91">
-        <v>1.8359315</v>
-      </c>
-      <c r="C91">
         <v>-0.005708513956213856</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43281</v>
       </c>
       <c r="B92">
-        <v>1.8992041</v>
-      </c>
-      <c r="C92">
         <v>0.02231104665257244</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43312</v>
       </c>
       <c r="B93">
-        <v>1.8878348</v>
-      </c>
-      <c r="C93">
         <v>-0.003921524531508513</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43343</v>
       </c>
       <c r="B94">
-        <v>1.9490901</v>
-      </c>
-      <c r="C94">
         <v>0.02121149727816851</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43373</v>
       </c>
       <c r="B95">
-        <v>1.9786549</v>
-      </c>
-      <c r="C95">
         <v>0.01002505823745437</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43404</v>
       </c>
       <c r="B96">
-        <v>1.9613952</v>
-      </c>
-      <c r="C96">
         <v>-0.005794461117331839</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43434</v>
       </c>
       <c r="B97">
-        <v>1.8844744</v>
-      </c>
-      <c r="C97">
         <v>-0.02597451363465431</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43465</v>
       </c>
       <c r="B98">
-        <v>1.7934416</v>
-      </c>
-      <c r="C98">
         <v>-0.03155957979727619</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43496</v>
       </c>
       <c r="B99">
-        <v>1.8227397</v>
-      </c>
-      <c r="C99">
         <v>0.01048817344167863</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43524</v>
       </c>
       <c r="B100">
-        <v>1.8295441</v>
-      </c>
-      <c r="C100">
         <v>0.002410565876832305</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43555</v>
       </c>
       <c r="B101">
-        <v>1.8496714</v>
-      </c>
-      <c r="C101">
         <v>0.007113266055828626</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43585</v>
       </c>
       <c r="B102">
-        <v>1.8488306</v>
-      </c>
-      <c r="C102">
         <v>-0.0002950515627873074</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43616</v>
       </c>
       <c r="B103">
-        <v>1.8940033</v>
-      </c>
-      <c r="C103">
         <v>0.0158565763790941</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43646</v>
       </c>
       <c r="B104">
-        <v>1.9371902</v>
-      </c>
-      <c r="C104">
         <v>0.01492289245143552</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43677</v>
       </c>
       <c r="B105">
-        <v>1.9568221</v>
-      </c>
-      <c r="C105">
         <v>0.00668390491020987</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43708</v>
       </c>
       <c r="B106">
-        <v>2.0013862</v>
-      </c>
-      <c r="C106">
         <v>0.01507162030478582</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43738</v>
       </c>
       <c r="B107">
-        <v>1.9881476</v>
-      </c>
-      <c r="C107">
         <v>-0.00441082856981212</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43769</v>
       </c>
       <c r="B108">
-        <v>2.0112504</v>
-      </c>
-      <c r="C108">
         <v>0.007731478860013574</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43799</v>
       </c>
       <c r="B109">
-        <v>1.9892482</v>
-      </c>
-      <c r="C109">
         <v>-0.007306665696084291</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43830</v>
       </c>
       <c r="B110">
-        <v>2.0086399</v>
-      </c>
-      <c r="C110">
         <v>0.006487149511372081</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43861</v>
       </c>
       <c r="B111">
-        <v>2.013011</v>
-      </c>
-      <c r="C111">
         <v>0.00145284917613453</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43890</v>
       </c>
       <c r="B112">
-        <v>2.0488455</v>
-      </c>
-      <c r="C112">
         <v>0.01189325229811633</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43921</v>
       </c>
       <c r="B113">
-        <v>2.0545574</v>
-      </c>
-      <c r="C113">
         <v>0.001873463250269713</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43951</v>
       </c>
       <c r="B114">
-        <v>2.0931088</v>
-      </c>
-      <c r="C114">
         <v>0.01262094469071018</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43982</v>
       </c>
       <c r="B115">
-        <v>2.0610872</v>
-      </c>
-      <c r="C115">
         <v>-0.01035256179802024</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>44012</v>
       </c>
       <c r="B116">
-        <v>2.0990127</v>
-      </c>
-      <c r="C116">
         <v>0.01238955231330885</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>44043</v>
       </c>
       <c r="B117">
-        <v>2.1295709</v>
-      </c>
-      <c r="C117">
         <v>0.009860624320771727</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>44074</v>
       </c>
       <c r="B118">
-        <v>2.1792249</v>
-      </c>
-      <c r="C118">
         <v>0.01586607288558306</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>44104</v>
       </c>
       <c r="B119">
-        <v>2.1741538</v>
-      </c>
-      <c r="C119">
         <v>-0.001595074321417145</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>44135</v>
       </c>
       <c r="B120">
-        <v>2.2255956</v>
-      </c>
-      <c r="C120">
         <v>0.01620646107318424</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>44165</v>
       </c>
       <c r="B121">
-        <v>2.2320973</v>
-      </c>
-      <c r="C121">
-        <v>0.002015658751518545</v>
+        <v>-0.00587153578706523</v>
       </c>
     </row>
   </sheetData>
